--- a/data/data_2019.xlsx
+++ b/data/data_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F606C244-3CAD-D444-9DB5-5A338FD08DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749E89B-0A9E-B046-AFF0-7C83C1861B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" activeTab="1" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="44" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA2B4D-0647-CC4F-AA47-5450E2F8344B}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -10486,7 +10486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4B9BA7-5364-4D46-AC0D-7310316E3BB7}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -18073,9 +18073,7 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -18290,9 +18288,9 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14">
-        <f ca="1">R6/parameters!$B$5*16%</f>
-        <v>1112.8119402985076</v>
+      <c r="F5" s="38">
+        <f ca="1">R6/parameters!$B$5-F3</f>
+        <v>1760.5433872302765</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14">
@@ -18305,7 +18303,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1112.8119402985076</v>
+        <v>1760.5433872302765</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -18319,11 +18317,11 @@
       </c>
       <c r="R5" s="16">
         <f ca="1">SUM(M5:Q5)</f>
-        <v>4188.0519402985074</v>
+        <v>4835.7833872302763</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>4188.0519402985074</v>
+        <v>4835.7833872302763</v>
       </c>
       <c r="T5" s="8"/>
     </row>
@@ -18632,11 +18630,11 @@
       </c>
       <c r="E13" s="9">
         <f ca="1">-(E18-R5)</f>
-        <v>-517.62439711554543</v>
+        <v>-597.6810928037421</v>
       </c>
       <c r="F13" s="9">
         <f ca="1">-(F18-R6)</f>
-        <v>216.51682006609644</v>
+        <v>-431.21462686567247</v>
       </c>
       <c r="G13" s="9">
         <f ca="1">-(G18-R7)</f>
@@ -18655,7 +18653,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="9">
         <f t="shared" ref="M13:M17" ca="1" si="5">SUM(B13:L13)</f>
-        <v>-333.8548733256921</v>
+        <v>-1061.6430159456577</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -18663,11 +18661,11 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="9">
         <f t="shared" ref="R13:R18" ca="1" si="6">SUM(M13:Q13)</f>
-        <v>-333.8548733256921</v>
+        <v>-1061.6430159456577</v>
       </c>
       <c r="S13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>-333.8548733256921</v>
+        <v>-1061.6430159456577</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -18700,18 +18698,18 @@
       </c>
       <c r="N14" s="16">
         <f ca="1">-E16</f>
-        <v>-3634.9130310129149</v>
+        <v>-4362.7011736328805</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>-4705.6763374140528</v>
+        <v>-5433.4644800340184</v>
       </c>
       <c r="S14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>-4705.6763374140528</v>
+        <v>-5433.4644800340184</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -18758,7 +18756,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14">
         <f ca="1">E18-E15</f>
-        <v>3634.9130310129149</v>
+        <v>4362.7011736328805</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -18769,7 +18767,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>3634.9130310129149</v>
+        <v>4362.7011736328805</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -18777,11 +18775,11 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>3634.9130310129149</v>
+        <v>4362.7011736328805</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>3634.9130310129149</v>
+        <v>4362.7011736328805</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -18837,11 +18835,11 @@
       </c>
       <c r="E18" s="9">
         <f ca="1">$R$5/parameters!$B$4</f>
-        <v>4705.6763374140528</v>
+        <v>5433.4644800340184</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" ref="F18:L18" ca="1" si="7">SUM(F$2:F$12)</f>
-        <v>6307.3431799339032</v>
+        <v>6955.0746268656721</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -18869,7 +18867,7 @@
       </c>
       <c r="M18" s="17">
         <f ca="1">SUM(B18:L18)</f>
-        <v>34472.943394653616</v>
+        <v>35848.462984205355</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -18877,11 +18875,11 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>34472.943394653616</v>
+        <v>35848.462984205355</v>
       </c>
       <c r="S18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>34472.943394653616</v>
+        <v>35848.462984205355</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -18902,11 +18900,11 @@
       </c>
       <c r="E19" s="39">
         <f t="shared" ref="E19:H19" ca="1" si="8">IFERROR(1-(-E13)/E18, "")</f>
-        <v>0.89000000000000012</v>
+        <v>0.89</v>
       </c>
       <c r="F19" s="39">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0343277373514288</v>
+        <v>0.93799999999999983</v>
       </c>
       <c r="G19" s="39" t="str">
         <f t="shared" ca="1" si="8"/>

--- a/data/data_2019.xlsx
+++ b/data/data_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749E89B-0A9E-B046-AFF0-7C83C1861B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82EF347-36AA-624B-9D86-D9246EEE5CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
+    <workbookView xWindow="-2120" yWindow="-17340" windowWidth="30240" windowHeight="17340" firstSheet="10" activeTab="20" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="44" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA2B4D-0647-CC4F-AA47-5450E2F8344B}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -11602,9 +11602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B5C121-E718-B343-8EC3-1FFDE9A83F52}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -13454,9 +13452,7 @@
   </sheetPr>
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -15294,9 +15290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F85FDD5-4A1D-7442-A40D-9CCC6E1F4B80}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
